--- a/report/filter_juice_shop.xlsx
+++ b/report/filter_juice_shop.xlsx
@@ -14,18 +14,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="89">
   <si>
     <t>OWASP: Testing Guide v4.2 Checklist</t>
   </si>
   <si>
-    <t>Target URL/IP : 192.168.43.133:3000</t>
+    <t>Target URL/IP : 192.168.1.14:3000</t>
   </si>
   <si>
     <t xml:space="preserve">Target Name : </t>
   </si>
   <si>
-    <t>Start Date : 2023-06-12</t>
+    <t>Start Date : 2023-06-15</t>
   </si>
   <si>
     <t xml:space="preserve">Pentester Name : </t>
@@ -61,181 +61,154 @@
     <t>Notes</t>
   </si>
   <si>
+    <t>Testing for Cookies Attributes</t>
+  </si>
+  <si>
+    <t>Testing for Session Fixation</t>
+  </si>
+  <si>
+    <t>Testing for Exposed Session Variables</t>
+  </si>
+  <si>
+    <t>Testing for Cross Site Request Forgery</t>
+  </si>
+  <si>
+    <t>Testing for HTTP Verb Tampering</t>
+  </si>
+  <si>
+    <t>Testing for HTTP Parameter Pollution</t>
+  </si>
+  <si>
+    <t>Testing for Incubated Vulnerability</t>
+  </si>
+  <si>
+    <t>Testing for HTTP Splitting Smuggling</t>
+  </si>
+  <si>
+    <t>Testing for Improper Error Handling</t>
+  </si>
+  <si>
+    <t>Testing for Stack Traces</t>
+  </si>
+  <si>
+    <t>Testing for Weak Transport Layer Security</t>
+  </si>
+  <si>
+    <t>Test Business Logic Data Validation</t>
+  </si>
+  <si>
+    <t>Test Ability to Forge Requests</t>
+  </si>
+  <si>
+    <t>Test for Process Timing</t>
+  </si>
+  <si>
+    <t>Testing for the Circumvention of Work Flows</t>
+  </si>
+  <si>
+    <t>Test Defenses Against Application Misuse</t>
+  </si>
+  <si>
+    <t>Testing Cross Origin Resource Sharing</t>
+  </si>
+  <si>
+    <t>Testing for Clickjacking</t>
+  </si>
+  <si>
+    <t>GET http://192.168.1.14:3000/rest/user/whoami</t>
+  </si>
+  <si>
+    <t>Test Role Definitions</t>
+  </si>
+  <si>
+    <t>Testing for Credentials Transported over an Encrypted Channel</t>
+  </si>
+  <si>
+    <t>Testing for Bypassing Authentication Schema</t>
+  </si>
+  <si>
+    <t>Testing for Bypassing Authorization Schema</t>
+  </si>
+  <si>
+    <t>Testing for Privilege Escalation</t>
+  </si>
+  <si>
+    <t>Testing for Insecure Direct Object References</t>
+  </si>
+  <si>
+    <t>Testing for Session Management Schema</t>
+  </si>
+  <si>
+    <t>Testing Session Timeout</t>
+  </si>
+  <si>
+    <t>Testing for Session Puzzling</t>
+  </si>
+  <si>
+    <t>Testing for Session Hijacking</t>
+  </si>
+  <si>
+    <t>Testing for SQL Injection</t>
+  </si>
+  <si>
+    <t>Testing for Sensitive Information Sent via Unencrypted Channels</t>
+  </si>
+  <si>
+    <t>GET http://192.168.1.14:3000/rest/user/change-password/?current=&lt;value&gt;&amp;new=&lt;value&gt;&amp;repeat=&lt;value&gt;</t>
+  </si>
+  <si>
+    <t>Test User Registration Process</t>
+  </si>
+  <si>
+    <t>Test Account Provisioning Process</t>
+  </si>
+  <si>
+    <t>Testing for Default Credentials</t>
+  </si>
+  <si>
+    <t>Testing for Weak Password Policy</t>
+  </si>
+  <si>
+    <t>Testing for Weak Password Change or Reset Functionalities</t>
+  </si>
+  <si>
     <t>Testing Multi-Factor Authentication (MFA)</t>
   </si>
   <si>
-    <t>Testing for Cookies Attributes</t>
-  </si>
-  <si>
-    <t>Testing for Session Fixation</t>
-  </si>
-  <si>
-    <t>Testing for Exposed Session Variables</t>
-  </si>
-  <si>
-    <t>Testing for Cross Site Request Forgery</t>
-  </si>
-  <si>
-    <t>Testing for HTTP Verb Tampering</t>
-  </si>
-  <si>
-    <t>Testing for HTTP Parameter Pollution</t>
-  </si>
-  <si>
-    <t>Testing for Format String Injection</t>
-  </si>
-  <si>
-    <t>Testing for Incubated Vulnerability</t>
-  </si>
-  <si>
-    <t>Testing for HTTP Splitting Smuggling</t>
-  </si>
-  <si>
-    <t>Testing for Improper Error Handling</t>
-  </si>
-  <si>
-    <t>Testing for Stack Traces</t>
-  </si>
-  <si>
-    <t>Testing for Weak Transport Layer Security</t>
-  </si>
-  <si>
-    <t>Testing for Padding Oracle</t>
-  </si>
-  <si>
-    <t>Testing for Weak Encryption</t>
-  </si>
-  <si>
-    <t>Test Business Logic Data Validation</t>
-  </si>
-  <si>
-    <t>Test Ability to Forge Requests</t>
+    <t>Testing for LDAP Injection</t>
+  </si>
+  <si>
+    <t>Testing for XPath Injection</t>
+  </si>
+  <si>
+    <t>Testing for HTTP Incoming Requests</t>
+  </si>
+  <si>
+    <t>Test Number of Times a Function Can Be Used Limits</t>
+  </si>
+  <si>
+    <t>POST http://192.168.1.14:3000/rest/user/login</t>
   </si>
   <si>
     <t>Test Integrity Checks</t>
   </si>
   <si>
-    <t>Test for Process Timing</t>
-  </si>
-  <si>
-    <t>Test Number of Times a Function Can Be Used Limits</t>
-  </si>
-  <si>
-    <t>Testing for the Circumvention of Work Flows</t>
-  </si>
-  <si>
-    <t>Test Defenses Against Application Misuse</t>
-  </si>
-  <si>
-    <t>Testing Cross Origin Resource Sharing</t>
-  </si>
-  <si>
-    <t>Testing for Clickjacking</t>
-  </si>
-  <si>
-    <t>GET http://192.168.43.133:3000/rest/user/whoami</t>
-  </si>
-  <si>
-    <t>Test Role Definitions</t>
+    <t>POST http://192.168.1.14:3000/rest/user/data-export</t>
   </si>
   <si>
     <t>Testing for Account Enumeration and Guessable User Account</t>
   </si>
   <si>
-    <t>Testing for Credentials Transported over an Encrypted Channel</t>
-  </si>
-  <si>
-    <t>Testing for Bypassing Authentication Schema</t>
-  </si>
-  <si>
-    <t>Testing for Browser Cache Weaknesses</t>
-  </si>
-  <si>
-    <t>Testing for Bypassing Authorization Schema</t>
-  </si>
-  <si>
-    <t>Testing for Privilege Escalation</t>
-  </si>
-  <si>
-    <t>Testing for Insecure Direct Object References</t>
-  </si>
-  <si>
-    <t>Testing Session Timeout</t>
-  </si>
-  <si>
-    <t>Testing for Session Puzzling</t>
-  </si>
-  <si>
-    <t>Testing for Session Hijacking</t>
-  </si>
-  <si>
-    <t>Testing for Sensitive Information Sent via Unencrypted Channels</t>
-  </si>
-  <si>
-    <t>GET http://192.168.43.133:3000/rest/user/?current=&lt;value&gt;&amp;new=&lt;value&gt;&amp;repeat=&lt;value&gt;</t>
-  </si>
-  <si>
-    <t>Test User Registration Process</t>
-  </si>
-  <si>
-    <t>Test Account Provisioning Process</t>
-  </si>
-  <si>
-    <t>Testing for Default Credentials</t>
-  </si>
-  <si>
-    <t>Testing for Weak Lock Out Mechanism</t>
-  </si>
-  <si>
-    <t>Testing for Weak Password Policy</t>
-  </si>
-  <si>
-    <t>Testing for Weak Password Change or Reset Functionalities</t>
-  </si>
-  <si>
-    <t>Testing for Reflected Cross Site Scripting</t>
-  </si>
-  <si>
-    <t>Testing for Stored Cross Site Scripting</t>
-  </si>
-  <si>
-    <t>Testing for SQL Injection</t>
-  </si>
-  <si>
-    <t>Testing for LDAP Injection</t>
-  </si>
-  <si>
-    <t>Testing for XPath Injection</t>
-  </si>
-  <si>
-    <t>Testing for Buffer Overflow</t>
-  </si>
-  <si>
-    <t>Testing for HTTP Incoming Requests</t>
+    <t>Testing for Weak Security Question Answer</t>
   </si>
   <si>
     <t>Testing for Host Header Injection</t>
   </si>
   <si>
-    <t>Testing for DOM-Based Cross Site Scripting</t>
-  </si>
-  <si>
-    <t>Testing for HTML Injection</t>
-  </si>
-  <si>
-    <t>POST http://192.168.43.133:3000/rest/user/login</t>
-  </si>
-  <si>
-    <t>POST http://192.168.43.133:3000/rest/user/data-export</t>
-  </si>
-  <si>
-    <t>Testing for Weak Security Question Answer</t>
-  </si>
-  <si>
-    <t>POST http://192.168.43.133:3000/rest/user/reset-password</t>
-  </si>
-  <si>
-    <t>GET http://192.168.43.133:3000/rest/user/?email=&lt;value&gt;</t>
+    <t>POST http://192.168.1.14:3000/rest/user/reset-password</t>
+  </si>
+  <si>
+    <t>GET http://192.168.1.14:3000/rest/user/security-question/?email=&lt;value&gt;</t>
   </si>
   <si>
     <t>Conduct Search Engine Discovery Reconnaissance for Information Leakage</t>
@@ -809,7 +782,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F221"/>
+  <dimension ref="A1:F186"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
@@ -884,7 +857,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>15</v>
@@ -946,7 +919,7 @@
     <row r="13" spans="1:6" ht="100" customHeight="1">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D13" s="7"/>
@@ -966,7 +939,7 @@
     <row r="15" spans="1:6" ht="100" customHeight="1">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D15" s="7"/>
@@ -976,7 +949,7 @@
     <row r="16" spans="1:6" ht="100" customHeight="1">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D16" s="7"/>
@@ -996,7 +969,7 @@
     <row r="18" spans="1:6" ht="100" customHeight="1">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D18" s="7"/>
@@ -1036,7 +1009,7 @@
     <row r="22" spans="1:6" ht="100" customHeight="1">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D22" s="7"/>
@@ -1064,10 +1037,14 @@
       <c r="F24" s="7"/>
     </row>
     <row r="25" spans="1:6" ht="100" customHeight="1">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="5" t="s">
-        <v>33</v>
+      <c r="A25" s="7">
+        <v>2</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
@@ -1077,7 +1054,7 @@
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
@@ -1086,8 +1063,8 @@
     <row r="27" spans="1:6" ht="100" customHeight="1">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
-      <c r="C27" s="5" t="s">
-        <v>35</v>
+      <c r="C27" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
@@ -1096,8 +1073,8 @@
     <row r="28" spans="1:6" ht="100" customHeight="1">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
-      <c r="C28" s="5" t="s">
-        <v>36</v>
+      <c r="C28" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
@@ -1106,8 +1083,8 @@
     <row r="29" spans="1:6" ht="100" customHeight="1">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
-      <c r="C29" s="5" t="s">
-        <v>37</v>
+      <c r="C29" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
@@ -1116,21 +1093,17 @@
     <row r="30" spans="1:6" ht="100" customHeight="1">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
-      <c r="C30" s="5" t="s">
-        <v>38</v>
+      <c r="C30" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
     </row>
     <row r="31" spans="1:6" ht="100" customHeight="1">
-      <c r="A31" s="7">
-        <v>2</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C31" s="4" t="s">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="5" t="s">
         <v>40</v>
       </c>
       <c r="D31" s="7"/>
@@ -1141,7 +1114,7 @@
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="5" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
@@ -1151,7 +1124,7 @@
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="5" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
@@ -1160,8 +1133,8 @@
     <row r="34" spans="1:6" ht="100" customHeight="1">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
-      <c r="C34" s="3" t="s">
-        <v>43</v>
+      <c r="C34" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
@@ -1171,7 +1144,7 @@
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="5" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
@@ -1181,7 +1154,7 @@
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="5" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
@@ -1190,8 +1163,8 @@
     <row r="37" spans="1:6" ht="100" customHeight="1">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
-      <c r="C37" s="4" t="s">
-        <v>45</v>
+      <c r="C37" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
@@ -1200,8 +1173,8 @@
     <row r="38" spans="1:6" ht="100" customHeight="1">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
-      <c r="C38" s="4" t="s">
-        <v>46</v>
+      <c r="C38" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
@@ -1210,8 +1183,8 @@
     <row r="39" spans="1:6" ht="100" customHeight="1">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
-      <c r="C39" s="4" t="s">
-        <v>47</v>
+      <c r="C39" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
@@ -1221,7 +1194,7 @@
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
@@ -1230,8 +1203,8 @@
     <row r="41" spans="1:6" ht="100" customHeight="1">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
-      <c r="C41" s="5" t="s">
-        <v>17</v>
+      <c r="C41" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
@@ -1240,8 +1213,8 @@
     <row r="42" spans="1:6" ht="100" customHeight="1">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
-      <c r="C42" s="5" t="s">
-        <v>18</v>
+      <c r="C42" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
@@ -1250,8 +1223,8 @@
     <row r="43" spans="1:6" ht="100" customHeight="1">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
-      <c r="C43" s="5" t="s">
-        <v>19</v>
+      <c r="C43" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
@@ -1261,7 +1234,7 @@
       <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="5" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
@@ -1271,7 +1244,7 @@
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="5" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
@@ -1281,7 +1254,7 @@
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="5" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
@@ -1291,7 +1264,7 @@
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="5" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
@@ -1300,8 +1273,8 @@
     <row r="48" spans="1:6" ht="100" customHeight="1">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
-      <c r="C48" s="5" t="s">
-        <v>21</v>
+      <c r="C48" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
@@ -1310,8 +1283,8 @@
     <row r="49" spans="1:6" ht="100" customHeight="1">
       <c r="A49" s="7"/>
       <c r="B49" s="7"/>
-      <c r="C49" s="4" t="s">
-        <v>22</v>
+      <c r="C49" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
@@ -1320,8 +1293,8 @@
     <row r="50" spans="1:6" ht="100" customHeight="1">
       <c r="A50" s="7"/>
       <c r="B50" s="7"/>
-      <c r="C50" s="4" t="s">
-        <v>23</v>
+      <c r="C50" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
@@ -1330,8 +1303,8 @@
     <row r="51" spans="1:6" ht="100" customHeight="1">
       <c r="A51" s="7"/>
       <c r="B51" s="7"/>
-      <c r="C51" s="4" t="s">
-        <v>24</v>
+      <c r="C51" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
@@ -1341,7 +1314,7 @@
       <c r="A52" s="7"/>
       <c r="B52" s="7"/>
       <c r="C52" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D52" s="7"/>
       <c r="E52" s="7"/>
@@ -1351,7 +1324,7 @@
       <c r="A53" s="7"/>
       <c r="B53" s="7"/>
       <c r="C53" s="5" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
@@ -1361,17 +1334,21 @@
       <c r="A54" s="7"/>
       <c r="B54" s="7"/>
       <c r="C54" s="5" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D54" s="7"/>
       <c r="E54" s="7"/>
       <c r="F54" s="7"/>
     </row>
     <row r="55" spans="1:6" ht="100" customHeight="1">
-      <c r="A55" s="7"/>
-      <c r="B55" s="7"/>
+      <c r="A55" s="7">
+        <v>3</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>57</v>
+      </c>
       <c r="C55" s="5" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="D55" s="7"/>
       <c r="E55" s="7"/>
@@ -1380,8 +1357,8 @@
     <row r="56" spans="1:6" ht="100" customHeight="1">
       <c r="A56" s="7"/>
       <c r="B56" s="7"/>
-      <c r="C56" s="5" t="s">
-        <v>51</v>
+      <c r="C56" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="D56" s="7"/>
       <c r="E56" s="7"/>
@@ -1391,7 +1368,7 @@
       <c r="A57" s="7"/>
       <c r="B57" s="7"/>
       <c r="C57" s="5" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D57" s="7"/>
       <c r="E57" s="7"/>
@@ -1400,8 +1377,8 @@
     <row r="58" spans="1:6" ht="100" customHeight="1">
       <c r="A58" s="7"/>
       <c r="B58" s="7"/>
-      <c r="C58" s="4" t="s">
-        <v>30</v>
+      <c r="C58" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="D58" s="7"/>
       <c r="E58" s="7"/>
@@ -1411,7 +1388,7 @@
       <c r="A59" s="7"/>
       <c r="B59" s="7"/>
       <c r="C59" s="5" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="D59" s="7"/>
       <c r="E59" s="7"/>
@@ -1420,8 +1397,8 @@
     <row r="60" spans="1:6" ht="100" customHeight="1">
       <c r="A60" s="7"/>
       <c r="B60" s="7"/>
-      <c r="C60" s="5" t="s">
-        <v>32</v>
+      <c r="C60" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="D60" s="7"/>
       <c r="E60" s="7"/>
@@ -1431,7 +1408,7 @@
       <c r="A61" s="7"/>
       <c r="B61" s="7"/>
       <c r="C61" s="5" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="D61" s="7"/>
       <c r="E61" s="7"/>
@@ -1441,7 +1418,7 @@
       <c r="A62" s="7"/>
       <c r="B62" s="7"/>
       <c r="C62" s="5" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D62" s="7"/>
       <c r="E62" s="7"/>
@@ -1451,7 +1428,7 @@
       <c r="A63" s="7"/>
       <c r="B63" s="7"/>
       <c r="C63" s="5" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="D63" s="7"/>
       <c r="E63" s="7"/>
@@ -1461,7 +1438,7 @@
       <c r="A64" s="7"/>
       <c r="B64" s="7"/>
       <c r="C64" s="5" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D64" s="7"/>
       <c r="E64" s="7"/>
@@ -1471,7 +1448,7 @@
       <c r="A65" s="7"/>
       <c r="B65" s="7"/>
       <c r="C65" s="5" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="D65" s="7"/>
       <c r="E65" s="7"/>
@@ -1481,21 +1458,17 @@
       <c r="A66" s="7"/>
       <c r="B66" s="7"/>
       <c r="C66" s="5" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="D66" s="7"/>
       <c r="E66" s="7"/>
       <c r="F66" s="7"/>
     </row>
     <row r="67" spans="1:6" ht="100" customHeight="1">
-      <c r="A67" s="7">
-        <v>3</v>
-      </c>
-      <c r="B67" s="7" t="s">
-        <v>69</v>
-      </c>
+      <c r="A67" s="7"/>
+      <c r="B67" s="7"/>
       <c r="C67" s="5" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="D67" s="7"/>
       <c r="E67" s="7"/>
@@ -1504,8 +1477,8 @@
     <row r="68" spans="1:6" ht="100" customHeight="1">
       <c r="A68" s="7"/>
       <c r="B68" s="7"/>
-      <c r="C68" s="4" t="s">
-        <v>54</v>
+      <c r="C68" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="D68" s="7"/>
       <c r="E68" s="7"/>
@@ -1514,8 +1487,8 @@
     <row r="69" spans="1:6" ht="100" customHeight="1">
       <c r="A69" s="7"/>
       <c r="B69" s="7"/>
-      <c r="C69" s="5" t="s">
-        <v>41</v>
+      <c r="C69" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="D69" s="7"/>
       <c r="E69" s="7"/>
@@ -1524,8 +1497,8 @@
     <row r="70" spans="1:6" ht="100" customHeight="1">
       <c r="A70" s="7"/>
       <c r="B70" s="7"/>
-      <c r="C70" s="5" t="s">
-        <v>42</v>
+      <c r="C70" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="D70" s="7"/>
       <c r="E70" s="7"/>
@@ -1534,8 +1507,8 @@
     <row r="71" spans="1:6" ht="100" customHeight="1">
       <c r="A71" s="7"/>
       <c r="B71" s="7"/>
-      <c r="C71" s="5" t="s">
-        <v>55</v>
+      <c r="C71" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="D71" s="7"/>
       <c r="E71" s="7"/>
@@ -1544,8 +1517,8 @@
     <row r="72" spans="1:6" ht="100" customHeight="1">
       <c r="A72" s="7"/>
       <c r="B72" s="7"/>
-      <c r="C72" s="5" t="s">
-        <v>56</v>
+      <c r="C72" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="D72" s="7"/>
       <c r="E72" s="7"/>
@@ -1555,7 +1528,7 @@
       <c r="A73" s="7"/>
       <c r="B73" s="7"/>
       <c r="C73" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D73" s="7"/>
       <c r="E73" s="7"/>
@@ -1564,8 +1537,8 @@
     <row r="74" spans="1:6" ht="100" customHeight="1">
       <c r="A74" s="7"/>
       <c r="B74" s="7"/>
-      <c r="C74" s="3" t="s">
-        <v>58</v>
+      <c r="C74" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="D74" s="7"/>
       <c r="E74" s="7"/>
@@ -1575,7 +1548,7 @@
       <c r="A75" s="7"/>
       <c r="B75" s="7"/>
       <c r="C75" s="5" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D75" s="7"/>
       <c r="E75" s="7"/>
@@ -1585,7 +1558,7 @@
       <c r="A76" s="7"/>
       <c r="B76" s="7"/>
       <c r="C76" s="5" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D76" s="7"/>
       <c r="E76" s="7"/>
@@ -1595,7 +1568,7 @@
       <c r="A77" s="7"/>
       <c r="B77" s="7"/>
       <c r="C77" s="5" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="D77" s="7"/>
       <c r="E77" s="7"/>
@@ -1604,8 +1577,8 @@
     <row r="78" spans="1:6" ht="100" customHeight="1">
       <c r="A78" s="7"/>
       <c r="B78" s="7"/>
-      <c r="C78" s="5" t="s">
-        <v>18</v>
+      <c r="C78" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="D78" s="7"/>
       <c r="E78" s="7"/>
@@ -1615,7 +1588,7 @@
       <c r="A79" s="7"/>
       <c r="B79" s="7"/>
       <c r="C79" s="5" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D79" s="7"/>
       <c r="E79" s="7"/>
@@ -1625,7 +1598,7 @@
       <c r="A80" s="7"/>
       <c r="B80" s="7"/>
       <c r="C80" s="5" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="D80" s="7"/>
       <c r="E80" s="7"/>
@@ -1634,8 +1607,8 @@
     <row r="81" spans="1:6" ht="100" customHeight="1">
       <c r="A81" s="7"/>
       <c r="B81" s="7"/>
-      <c r="C81" s="4" t="s">
-        <v>60</v>
+      <c r="C81" s="5" t="s">
+        <v>56</v>
       </c>
       <c r="D81" s="7"/>
       <c r="E81" s="7"/>
@@ -1645,7 +1618,7 @@
       <c r="A82" s="7"/>
       <c r="B82" s="7"/>
       <c r="C82" s="5" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D82" s="7"/>
       <c r="E82" s="7"/>
@@ -1655,7 +1628,7 @@
       <c r="A83" s="7"/>
       <c r="B83" s="7"/>
       <c r="C83" s="5" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D83" s="7"/>
       <c r="E83" s="7"/>
@@ -1664,8 +1637,8 @@
     <row r="84" spans="1:6" ht="100" customHeight="1">
       <c r="A84" s="7"/>
       <c r="B84" s="7"/>
-      <c r="C84" s="3" t="s">
-        <v>61</v>
+      <c r="C84" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="D84" s="7"/>
       <c r="E84" s="7"/>
@@ -1674,18 +1647,22 @@
     <row r="85" spans="1:6" ht="100" customHeight="1">
       <c r="A85" s="7"/>
       <c r="B85" s="7"/>
-      <c r="C85" s="3" t="s">
-        <v>62</v>
+      <c r="C85" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="D85" s="7"/>
       <c r="E85" s="7"/>
       <c r="F85" s="7"/>
     </row>
     <row r="86" spans="1:6" ht="100" customHeight="1">
-      <c r="A86" s="7"/>
-      <c r="B86" s="7"/>
+      <c r="A86" s="7">
+        <v>4</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>59</v>
+      </c>
       <c r="C86" s="4" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="D86" s="7"/>
       <c r="E86" s="7"/>
@@ -1694,8 +1671,8 @@
     <row r="87" spans="1:6" ht="100" customHeight="1">
       <c r="A87" s="7"/>
       <c r="B87" s="7"/>
-      <c r="C87" s="4" t="s">
-        <v>64</v>
+      <c r="C87" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="D87" s="7"/>
       <c r="E87" s="7"/>
@@ -1704,8 +1681,8 @@
     <row r="88" spans="1:6" ht="100" customHeight="1">
       <c r="A88" s="7"/>
       <c r="B88" s="7"/>
-      <c r="C88" s="4" t="s">
-        <v>22</v>
+      <c r="C88" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="D88" s="7"/>
       <c r="E88" s="7"/>
@@ -1715,7 +1692,7 @@
       <c r="A89" s="7"/>
       <c r="B89" s="7"/>
       <c r="C89" s="4" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="D89" s="7"/>
       <c r="E89" s="7"/>
@@ -1725,7 +1702,7 @@
       <c r="A90" s="7"/>
       <c r="B90" s="7"/>
       <c r="C90" s="4" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="D90" s="7"/>
       <c r="E90" s="7"/>
@@ -1734,8 +1711,8 @@
     <row r="91" spans="1:6" ht="100" customHeight="1">
       <c r="A91" s="7"/>
       <c r="B91" s="7"/>
-      <c r="C91" s="5" t="s">
-        <v>65</v>
+      <c r="C91" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="D91" s="7"/>
       <c r="E91" s="7"/>
@@ -1744,8 +1721,8 @@
     <row r="92" spans="1:6" ht="100" customHeight="1">
       <c r="A92" s="7"/>
       <c r="B92" s="7"/>
-      <c r="C92" s="4" t="s">
-        <v>66</v>
+      <c r="C92" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="D92" s="7"/>
       <c r="E92" s="7"/>
@@ -1755,7 +1732,7 @@
       <c r="A93" s="7"/>
       <c r="B93" s="7"/>
       <c r="C93" s="5" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D93" s="7"/>
       <c r="E93" s="7"/>
@@ -1765,7 +1742,7 @@
       <c r="A94" s="7"/>
       <c r="B94" s="7"/>
       <c r="C94" s="5" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D94" s="7"/>
       <c r="E94" s="7"/>
@@ -1775,7 +1752,7 @@
       <c r="A95" s="7"/>
       <c r="B95" s="7"/>
       <c r="C95" s="5" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D95" s="7"/>
       <c r="E95" s="7"/>
@@ -1785,7 +1762,7 @@
       <c r="A96" s="7"/>
       <c r="B96" s="7"/>
       <c r="C96" s="5" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D96" s="7"/>
       <c r="E96" s="7"/>
@@ -1795,7 +1772,7 @@
       <c r="A97" s="7"/>
       <c r="B97" s="7"/>
       <c r="C97" s="5" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="D97" s="7"/>
       <c r="E97" s="7"/>
@@ -1804,8 +1781,8 @@
     <row r="98" spans="1:6" ht="100" customHeight="1">
       <c r="A98" s="7"/>
       <c r="B98" s="7"/>
-      <c r="C98" s="4" t="s">
-        <v>30</v>
+      <c r="C98" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="D98" s="7"/>
       <c r="E98" s="7"/>
@@ -1815,7 +1792,7 @@
       <c r="A99" s="7"/>
       <c r="B99" s="7"/>
       <c r="C99" s="5" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="D99" s="7"/>
       <c r="E99" s="7"/>
@@ -1825,7 +1802,7 @@
       <c r="A100" s="7"/>
       <c r="B100" s="7"/>
       <c r="C100" s="5" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D100" s="7"/>
       <c r="E100" s="7"/>
@@ -1835,7 +1812,7 @@
       <c r="A101" s="7"/>
       <c r="B101" s="7"/>
       <c r="C101" s="5" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D101" s="7"/>
       <c r="E101" s="7"/>
@@ -1844,8 +1821,8 @@
     <row r="102" spans="1:6" ht="100" customHeight="1">
       <c r="A102" s="7"/>
       <c r="B102" s="7"/>
-      <c r="C102" s="5" t="s">
-        <v>34</v>
+      <c r="C102" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="D102" s="7"/>
       <c r="E102" s="7"/>
@@ -1854,8 +1831,8 @@
     <row r="103" spans="1:6" ht="100" customHeight="1">
       <c r="A103" s="7"/>
       <c r="B103" s="7"/>
-      <c r="C103" s="5" t="s">
-        <v>35</v>
+      <c r="C103" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="D103" s="7"/>
       <c r="E103" s="7"/>
@@ -1865,7 +1842,7 @@
       <c r="A104" s="7"/>
       <c r="B104" s="7"/>
       <c r="C104" s="5" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D104" s="7"/>
       <c r="E104" s="7"/>
@@ -1874,8 +1851,8 @@
     <row r="105" spans="1:6" ht="100" customHeight="1">
       <c r="A105" s="7"/>
       <c r="B105" s="7"/>
-      <c r="C105" s="4" t="s">
-        <v>67</v>
+      <c r="C105" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="D105" s="7"/>
       <c r="E105" s="7"/>
@@ -1885,7 +1862,7 @@
       <c r="A106" s="7"/>
       <c r="B106" s="7"/>
       <c r="C106" s="5" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="D106" s="7"/>
       <c r="E106" s="7"/>
@@ -1895,7 +1872,7 @@
       <c r="A107" s="7"/>
       <c r="B107" s="7"/>
       <c r="C107" s="5" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D107" s="7"/>
       <c r="E107" s="7"/>
@@ -1904,22 +1881,18 @@
     <row r="108" spans="1:6" ht="100" customHeight="1">
       <c r="A108" s="7"/>
       <c r="B108" s="7"/>
-      <c r="C108" s="5" t="s">
-        <v>38</v>
+      <c r="C108" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="D108" s="7"/>
       <c r="E108" s="7"/>
       <c r="F108" s="7"/>
     </row>
     <row r="109" spans="1:6" ht="100" customHeight="1">
-      <c r="A109" s="7">
-        <v>4</v>
-      </c>
-      <c r="B109" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C109" s="4" t="s">
-        <v>40</v>
+      <c r="A109" s="7"/>
+      <c r="B109" s="7"/>
+      <c r="C109" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="D109" s="7"/>
       <c r="E109" s="7"/>
@@ -1929,7 +1902,7 @@
       <c r="A110" s="7"/>
       <c r="B110" s="7"/>
       <c r="C110" s="5" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="D110" s="7"/>
       <c r="E110" s="7"/>
@@ -1939,7 +1912,7 @@
       <c r="A111" s="7"/>
       <c r="B111" s="7"/>
       <c r="C111" s="5" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D111" s="7"/>
       <c r="E111" s="7"/>
@@ -1948,8 +1921,8 @@
     <row r="112" spans="1:6" ht="100" customHeight="1">
       <c r="A112" s="7"/>
       <c r="B112" s="7"/>
-      <c r="C112" s="3" t="s">
-        <v>43</v>
+      <c r="C112" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="D112" s="7"/>
       <c r="E112" s="7"/>
@@ -1959,7 +1932,7 @@
       <c r="A113" s="7"/>
       <c r="B113" s="7"/>
       <c r="C113" s="5" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="D113" s="7"/>
       <c r="E113" s="7"/>
@@ -1969,7 +1942,7 @@
       <c r="A114" s="7"/>
       <c r="B114" s="7"/>
       <c r="C114" s="5" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="D114" s="7"/>
       <c r="E114" s="7"/>
@@ -1978,18 +1951,22 @@
     <row r="115" spans="1:6" ht="100" customHeight="1">
       <c r="A115" s="7"/>
       <c r="B115" s="7"/>
-      <c r="C115" s="4" t="s">
-        <v>45</v>
+      <c r="C115" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="D115" s="7"/>
       <c r="E115" s="7"/>
       <c r="F115" s="7"/>
     </row>
     <row r="116" spans="1:6" ht="100" customHeight="1">
-      <c r="A116" s="7"/>
-      <c r="B116" s="7"/>
-      <c r="C116" s="4" t="s">
-        <v>46</v>
+      <c r="A116" s="7">
+        <v>5</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="D116" s="7"/>
       <c r="E116" s="7"/>
@@ -1999,7 +1976,7 @@
       <c r="A117" s="7"/>
       <c r="B117" s="7"/>
       <c r="C117" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D117" s="7"/>
       <c r="E117" s="7"/>
@@ -2009,7 +1986,7 @@
       <c r="A118" s="7"/>
       <c r="B118" s="7"/>
       <c r="C118" s="5" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="D118" s="7"/>
       <c r="E118" s="7"/>
@@ -2019,7 +1996,7 @@
       <c r="A119" s="7"/>
       <c r="B119" s="7"/>
       <c r="C119" s="5" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D119" s="7"/>
       <c r="E119" s="7"/>
@@ -2029,7 +2006,7 @@
       <c r="A120" s="7"/>
       <c r="B120" s="7"/>
       <c r="C120" s="5" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="D120" s="7"/>
       <c r="E120" s="7"/>
@@ -2039,7 +2016,7 @@
       <c r="A121" s="7"/>
       <c r="B121" s="7"/>
       <c r="C121" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D121" s="7"/>
       <c r="E121" s="7"/>
@@ -2049,7 +2026,7 @@
       <c r="A122" s="7"/>
       <c r="B122" s="7"/>
       <c r="C122" s="5" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="D122" s="7"/>
       <c r="E122" s="7"/>
@@ -2059,7 +2036,7 @@
       <c r="A123" s="7"/>
       <c r="B123" s="7"/>
       <c r="C123" s="5" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="D123" s="7"/>
       <c r="E123" s="7"/>
@@ -2069,7 +2046,7 @@
       <c r="A124" s="7"/>
       <c r="B124" s="7"/>
       <c r="C124" s="5" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="D124" s="7"/>
       <c r="E124" s="7"/>
@@ -2079,7 +2056,7 @@
       <c r="A125" s="7"/>
       <c r="B125" s="7"/>
       <c r="C125" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D125" s="7"/>
       <c r="E125" s="7"/>
@@ -2089,7 +2066,7 @@
       <c r="A126" s="7"/>
       <c r="B126" s="7"/>
       <c r="C126" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D126" s="7"/>
       <c r="E126" s="7"/>
@@ -2098,8 +2075,8 @@
     <row r="127" spans="1:6" ht="100" customHeight="1">
       <c r="A127" s="7"/>
       <c r="B127" s="7"/>
-      <c r="C127" s="4" t="s">
-        <v>22</v>
+      <c r="C127" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="D127" s="7"/>
       <c r="E127" s="7"/>
@@ -2109,7 +2086,7 @@
       <c r="A128" s="7"/>
       <c r="B128" s="7"/>
       <c r="C128" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D128" s="7"/>
       <c r="E128" s="7"/>
@@ -2119,7 +2096,7 @@
       <c r="A129" s="7"/>
       <c r="B129" s="7"/>
       <c r="C129" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D129" s="7"/>
       <c r="E129" s="7"/>
@@ -2129,7 +2106,7 @@
       <c r="A130" s="7"/>
       <c r="B130" s="7"/>
       <c r="C130" s="5" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="D130" s="7"/>
       <c r="E130" s="7"/>
@@ -2138,8 +2115,8 @@
     <row r="131" spans="1:6" ht="100" customHeight="1">
       <c r="A131" s="7"/>
       <c r="B131" s="7"/>
-      <c r="C131" s="5" t="s">
-        <v>26</v>
+      <c r="C131" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="D131" s="7"/>
       <c r="E131" s="7"/>
@@ -2149,7 +2126,7 @@
       <c r="A132" s="7"/>
       <c r="B132" s="7"/>
       <c r="C132" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D132" s="7"/>
       <c r="E132" s="7"/>
@@ -2159,7 +2136,7 @@
       <c r="A133" s="7"/>
       <c r="B133" s="7"/>
       <c r="C133" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D133" s="7"/>
       <c r="E133" s="7"/>
@@ -2169,7 +2146,7 @@
       <c r="A134" s="7"/>
       <c r="B134" s="7"/>
       <c r="C134" s="5" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="D134" s="7"/>
       <c r="E134" s="7"/>
@@ -2179,7 +2156,7 @@
       <c r="A135" s="7"/>
       <c r="B135" s="7"/>
       <c r="C135" s="5" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="D135" s="7"/>
       <c r="E135" s="7"/>
@@ -2189,7 +2166,7 @@
       <c r="A136" s="7"/>
       <c r="B136" s="7"/>
       <c r="C136" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D136" s="7"/>
       <c r="E136" s="7"/>
@@ -2199,7 +2176,7 @@
       <c r="A137" s="7"/>
       <c r="B137" s="7"/>
       <c r="C137" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D137" s="7"/>
       <c r="E137" s="7"/>
@@ -2209,7 +2186,7 @@
       <c r="A138" s="7"/>
       <c r="B138" s="7"/>
       <c r="C138" s="5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D138" s="7"/>
       <c r="E138" s="7"/>
@@ -2219,7 +2196,7 @@
       <c r="A139" s="7"/>
       <c r="B139" s="7"/>
       <c r="C139" s="5" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="D139" s="7"/>
       <c r="E139" s="7"/>
@@ -2229,7 +2206,7 @@
       <c r="A140" s="7"/>
       <c r="B140" s="7"/>
       <c r="C140" s="5" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D140" s="7"/>
       <c r="E140" s="7"/>
@@ -2239,7 +2216,7 @@
       <c r="A141" s="7"/>
       <c r="B141" s="7"/>
       <c r="C141" s="5" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D141" s="7"/>
       <c r="E141" s="7"/>
@@ -2249,7 +2226,7 @@
       <c r="A142" s="7"/>
       <c r="B142" s="7"/>
       <c r="C142" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D142" s="7"/>
       <c r="E142" s="7"/>
@@ -2259,31 +2236,31 @@
       <c r="A143" s="7"/>
       <c r="B143" s="7"/>
       <c r="C143" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D143" s="7"/>
       <c r="E143" s="7"/>
       <c r="F143" s="7"/>
     </row>
     <row r="144" spans="1:6" ht="100" customHeight="1">
-      <c r="A144" s="7"/>
-      <c r="B144" s="7"/>
+      <c r="A144" s="7">
+        <v>6</v>
+      </c>
+      <c r="B144" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="C144" s="5" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="D144" s="7"/>
       <c r="E144" s="7"/>
       <c r="F144" s="7"/>
     </row>
     <row r="145" spans="1:6" ht="100" customHeight="1">
-      <c r="A145" s="7">
-        <v>5</v>
-      </c>
-      <c r="B145" s="7" t="s">
-        <v>72</v>
-      </c>
+      <c r="A145" s="7"/>
+      <c r="B145" s="7"/>
       <c r="C145" s="5" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="D145" s="7"/>
       <c r="E145" s="7"/>
@@ -2292,8 +2269,8 @@
     <row r="146" spans="1:6" ht="100" customHeight="1">
       <c r="A146" s="7"/>
       <c r="B146" s="7"/>
-      <c r="C146" s="4" t="s">
-        <v>54</v>
+      <c r="C146" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="D146" s="7"/>
       <c r="E146" s="7"/>
@@ -2303,7 +2280,7 @@
       <c r="A147" s="7"/>
       <c r="B147" s="7"/>
       <c r="C147" s="5" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="D147" s="7"/>
       <c r="E147" s="7"/>
@@ -2313,7 +2290,7 @@
       <c r="A148" s="7"/>
       <c r="B148" s="7"/>
       <c r="C148" s="5" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="D148" s="7"/>
       <c r="E148" s="7"/>
@@ -2323,7 +2300,7 @@
       <c r="A149" s="7"/>
       <c r="B149" s="7"/>
       <c r="C149" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D149" s="7"/>
       <c r="E149" s="7"/>
@@ -2332,8 +2309,8 @@
     <row r="150" spans="1:6" ht="100" customHeight="1">
       <c r="A150" s="7"/>
       <c r="B150" s="7"/>
-      <c r="C150" s="5" t="s">
-        <v>16</v>
+      <c r="C150" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="D150" s="7"/>
       <c r="E150" s="7"/>
@@ -2342,8 +2319,8 @@
     <row r="151" spans="1:6" ht="100" customHeight="1">
       <c r="A151" s="7"/>
       <c r="B151" s="7"/>
-      <c r="C151" s="5" t="s">
-        <v>17</v>
+      <c r="C151" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="D151" s="7"/>
       <c r="E151" s="7"/>
@@ -2352,8 +2329,8 @@
     <row r="152" spans="1:6" ht="100" customHeight="1">
       <c r="A152" s="7"/>
       <c r="B152" s="7"/>
-      <c r="C152" s="5" t="s">
-        <v>18</v>
+      <c r="C152" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="D152" s="7"/>
       <c r="E152" s="7"/>
@@ -2363,7 +2340,7 @@
       <c r="A153" s="7"/>
       <c r="B153" s="7"/>
       <c r="C153" s="5" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D153" s="7"/>
       <c r="E153" s="7"/>
@@ -2373,7 +2350,7 @@
       <c r="A154" s="7"/>
       <c r="B154" s="7"/>
       <c r="C154" s="5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D154" s="7"/>
       <c r="E154" s="7"/>
@@ -2383,7 +2360,7 @@
       <c r="A155" s="7"/>
       <c r="B155" s="7"/>
       <c r="C155" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D155" s="7"/>
       <c r="E155" s="7"/>
@@ -2393,7 +2370,7 @@
       <c r="A156" s="7"/>
       <c r="B156" s="7"/>
       <c r="C156" s="4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D156" s="7"/>
       <c r="E156" s="7"/>
@@ -2402,8 +2379,8 @@
     <row r="157" spans="1:6" ht="100" customHeight="1">
       <c r="A157" s="7"/>
       <c r="B157" s="7"/>
-      <c r="C157" s="4" t="s">
-        <v>23</v>
+      <c r="C157" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="D157" s="7"/>
       <c r="E157" s="7"/>
@@ -2412,8 +2389,8 @@
     <row r="158" spans="1:6" ht="100" customHeight="1">
       <c r="A158" s="7"/>
       <c r="B158" s="7"/>
-      <c r="C158" s="4" t="s">
-        <v>24</v>
+      <c r="C158" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="D158" s="7"/>
       <c r="E158" s="7"/>
@@ -2423,7 +2400,7 @@
       <c r="A159" s="7"/>
       <c r="B159" s="7"/>
       <c r="C159" s="5" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="D159" s="7"/>
       <c r="E159" s="7"/>
@@ -2433,7 +2410,7 @@
       <c r="A160" s="7"/>
       <c r="B160" s="7"/>
       <c r="C160" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D160" s="7"/>
       <c r="E160" s="7"/>
@@ -2443,7 +2420,7 @@
       <c r="A161" s="7"/>
       <c r="B161" s="7"/>
       <c r="C161" s="5" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D161" s="7"/>
       <c r="E161" s="7"/>
@@ -2453,17 +2430,21 @@
       <c r="A162" s="7"/>
       <c r="B162" s="7"/>
       <c r="C162" s="5" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D162" s="7"/>
       <c r="E162" s="7"/>
       <c r="F162" s="7"/>
     </row>
     <row r="163" spans="1:6" ht="100" customHeight="1">
-      <c r="A163" s="7"/>
-      <c r="B163" s="7"/>
+      <c r="A163" s="7">
+        <v>7</v>
+      </c>
+      <c r="B163" s="7" t="s">
+        <v>88</v>
+      </c>
       <c r="C163" s="5" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="D163" s="7"/>
       <c r="E163" s="7"/>
@@ -2473,7 +2454,7 @@
       <c r="A164" s="7"/>
       <c r="B164" s="7"/>
       <c r="C164" s="5" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="D164" s="7"/>
       <c r="E164" s="7"/>
@@ -2482,8 +2463,8 @@
     <row r="165" spans="1:6" ht="100" customHeight="1">
       <c r="A165" s="7"/>
       <c r="B165" s="7"/>
-      <c r="C165" s="4" t="s">
-        <v>30</v>
+      <c r="C165" s="5" t="s">
+        <v>67</v>
       </c>
       <c r="D165" s="7"/>
       <c r="E165" s="7"/>
@@ -2493,7 +2474,7 @@
       <c r="A166" s="7"/>
       <c r="B166" s="7"/>
       <c r="C166" s="5" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="D166" s="7"/>
       <c r="E166" s="7"/>
@@ -2503,7 +2484,7 @@
       <c r="A167" s="7"/>
       <c r="B167" s="7"/>
       <c r="C167" s="5" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="D167" s="7"/>
       <c r="E167" s="7"/>
@@ -2513,7 +2494,7 @@
       <c r="A168" s="7"/>
       <c r="B168" s="7"/>
       <c r="C168" s="5" t="s">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="D168" s="7"/>
       <c r="E168" s="7"/>
@@ -2523,7 +2504,7 @@
       <c r="A169" s="7"/>
       <c r="B169" s="7"/>
       <c r="C169" s="5" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="D169" s="7"/>
       <c r="E169" s="7"/>
@@ -2533,7 +2514,7 @@
       <c r="A170" s="7"/>
       <c r="B170" s="7"/>
       <c r="C170" s="5" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="D170" s="7"/>
       <c r="E170" s="7"/>
@@ -2543,7 +2524,7 @@
       <c r="A171" s="7"/>
       <c r="B171" s="7"/>
       <c r="C171" s="5" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="D171" s="7"/>
       <c r="E171" s="7"/>
@@ -2553,7 +2534,7 @@
       <c r="A172" s="7"/>
       <c r="B172" s="7"/>
       <c r="C172" s="5" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="D172" s="7"/>
       <c r="E172" s="7"/>
@@ -2563,21 +2544,17 @@
       <c r="A173" s="7"/>
       <c r="B173" s="7"/>
       <c r="C173" s="5" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="D173" s="7"/>
       <c r="E173" s="7"/>
       <c r="F173" s="7"/>
     </row>
     <row r="174" spans="1:6" ht="100" customHeight="1">
-      <c r="A174" s="7">
-        <v>6</v>
-      </c>
-      <c r="B174" s="7" t="s">
-        <v>73</v>
-      </c>
+      <c r="A174" s="7"/>
+      <c r="B174" s="7"/>
       <c r="C174" s="5" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="D174" s="7"/>
       <c r="E174" s="7"/>
@@ -2587,7 +2564,7 @@
       <c r="A175" s="7"/>
       <c r="B175" s="7"/>
       <c r="C175" s="5" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="D175" s="7"/>
       <c r="E175" s="7"/>
@@ -2596,8 +2573,8 @@
     <row r="176" spans="1:6" ht="100" customHeight="1">
       <c r="A176" s="7"/>
       <c r="B176" s="7"/>
-      <c r="C176" s="5" t="s">
-        <v>17</v>
+      <c r="C176" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="D176" s="7"/>
       <c r="E176" s="7"/>
@@ -2607,7 +2584,7 @@
       <c r="A177" s="7"/>
       <c r="B177" s="7"/>
       <c r="C177" s="5" t="s">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="D177" s="7"/>
       <c r="E177" s="7"/>
@@ -2617,7 +2594,7 @@
       <c r="A178" s="7"/>
       <c r="B178" s="7"/>
       <c r="C178" s="5" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="D178" s="7"/>
       <c r="E178" s="7"/>
@@ -2627,7 +2604,7 @@
       <c r="A179" s="7"/>
       <c r="B179" s="7"/>
       <c r="C179" s="5" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="D179" s="7"/>
       <c r="E179" s="7"/>
@@ -2637,7 +2614,7 @@
       <c r="A180" s="7"/>
       <c r="B180" s="7"/>
       <c r="C180" s="5" t="s">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="D180" s="7"/>
       <c r="E180" s="7"/>
@@ -2646,8 +2623,8 @@
     <row r="181" spans="1:6" ht="100" customHeight="1">
       <c r="A181" s="7"/>
       <c r="B181" s="7"/>
-      <c r="C181" s="4" t="s">
-        <v>22</v>
+      <c r="C181" s="5" t="s">
+        <v>83</v>
       </c>
       <c r="D181" s="7"/>
       <c r="E181" s="7"/>
@@ -2657,7 +2634,7 @@
       <c r="A182" s="7"/>
       <c r="B182" s="7"/>
       <c r="C182" s="4" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="D182" s="7"/>
       <c r="E182" s="7"/>
@@ -2666,8 +2643,8 @@
     <row r="183" spans="1:6" ht="100" customHeight="1">
       <c r="A183" s="7"/>
       <c r="B183" s="7"/>
-      <c r="C183" s="4" t="s">
-        <v>24</v>
+      <c r="C183" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="D183" s="7"/>
       <c r="E183" s="7"/>
@@ -2677,7 +2654,7 @@
       <c r="A184" s="7"/>
       <c r="B184" s="7"/>
       <c r="C184" s="5" t="s">
-        <v>25</v>
+        <v>86</v>
       </c>
       <c r="D184" s="7"/>
       <c r="E184" s="7"/>
@@ -2687,387 +2664,33 @@
       <c r="A185" s="7"/>
       <c r="B185" s="7"/>
       <c r="C185" s="5" t="s">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="D185" s="7"/>
       <c r="E185" s="7"/>
       <c r="F185" s="7"/>
     </row>
-    <row r="186" spans="1:6" ht="100" customHeight="1">
-      <c r="A186" s="7"/>
-      <c r="B186" s="7"/>
-      <c r="C186" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D186" s="7"/>
-      <c r="E186" s="7"/>
-      <c r="F186" s="7"/>
-    </row>
-    <row r="187" spans="1:6" ht="100" customHeight="1">
-      <c r="A187" s="7"/>
-      <c r="B187" s="7"/>
-      <c r="C187" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D187" s="7"/>
-      <c r="E187" s="7"/>
-      <c r="F187" s="7"/>
-    </row>
-    <row r="188" spans="1:6" ht="100" customHeight="1">
-      <c r="A188" s="7"/>
-      <c r="B188" s="7"/>
-      <c r="C188" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D188" s="7"/>
-      <c r="E188" s="7"/>
-      <c r="F188" s="7"/>
-    </row>
-    <row r="189" spans="1:6" ht="100" customHeight="1">
-      <c r="A189" s="7"/>
-      <c r="B189" s="7"/>
-      <c r="C189" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D189" s="7"/>
-      <c r="E189" s="7"/>
-      <c r="F189" s="7"/>
-    </row>
-    <row r="190" spans="1:6" ht="100" customHeight="1">
-      <c r="A190" s="7"/>
-      <c r="B190" s="7"/>
-      <c r="C190" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D190" s="7"/>
-      <c r="E190" s="7"/>
-      <c r="F190" s="7"/>
-    </row>
-    <row r="191" spans="1:6" ht="100" customHeight="1">
-      <c r="A191" s="7"/>
-      <c r="B191" s="7"/>
-      <c r="C191" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D191" s="7"/>
-      <c r="E191" s="7"/>
-      <c r="F191" s="7"/>
-    </row>
-    <row r="192" spans="1:6" ht="100" customHeight="1">
-      <c r="A192" s="7"/>
-      <c r="B192" s="7"/>
-      <c r="C192" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D192" s="7"/>
-      <c r="E192" s="7"/>
-      <c r="F192" s="7"/>
-    </row>
-    <row r="193" spans="1:6" ht="100" customHeight="1">
-      <c r="A193" s="7"/>
-      <c r="B193" s="7"/>
-      <c r="C193" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D193" s="7"/>
-      <c r="E193" s="7"/>
-      <c r="F193" s="7"/>
-    </row>
-    <row r="194" spans="1:6" ht="100" customHeight="1">
-      <c r="A194" s="7"/>
-      <c r="B194" s="7"/>
-      <c r="C194" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D194" s="7"/>
-      <c r="E194" s="7"/>
-      <c r="F194" s="7"/>
-    </row>
-    <row r="195" spans="1:6" ht="100" customHeight="1">
-      <c r="A195" s="7"/>
-      <c r="B195" s="7"/>
-      <c r="C195" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D195" s="7"/>
-      <c r="E195" s="7"/>
-      <c r="F195" s="7"/>
-    </row>
-    <row r="196" spans="1:6" ht="100" customHeight="1">
-      <c r="A196" s="7"/>
-      <c r="B196" s="7"/>
-      <c r="C196" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D196" s="7"/>
-      <c r="E196" s="7"/>
-      <c r="F196" s="7"/>
-    </row>
-    <row r="197" spans="1:6" ht="100" customHeight="1">
-      <c r="A197" s="7"/>
-      <c r="B197" s="7"/>
-      <c r="C197" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D197" s="7"/>
-      <c r="E197" s="7"/>
-      <c r="F197" s="7"/>
-    </row>
-    <row r="198" spans="1:6" ht="100" customHeight="1">
-      <c r="A198" s="7">
-        <v>7</v>
-      </c>
-      <c r="B198" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="C198" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D198" s="7"/>
-      <c r="E198" s="7"/>
-      <c r="F198" s="7"/>
-    </row>
-    <row r="199" spans="1:6" ht="100" customHeight="1">
-      <c r="A199" s="7"/>
-      <c r="B199" s="7"/>
-      <c r="C199" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D199" s="7"/>
-      <c r="E199" s="7"/>
-      <c r="F199" s="7"/>
-    </row>
-    <row r="200" spans="1:6" ht="100" customHeight="1">
-      <c r="A200" s="7"/>
-      <c r="B200" s="7"/>
-      <c r="C200" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D200" s="7"/>
-      <c r="E200" s="7"/>
-      <c r="F200" s="7"/>
-    </row>
-    <row r="201" spans="1:6" ht="100" customHeight="1">
-      <c r="A201" s="7"/>
-      <c r="B201" s="7"/>
-      <c r="C201" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D201" s="7"/>
-      <c r="E201" s="7"/>
-      <c r="F201" s="7"/>
-    </row>
-    <row r="202" spans="1:6" ht="100" customHeight="1">
-      <c r="A202" s="7"/>
-      <c r="B202" s="7"/>
-      <c r="C202" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D202" s="7"/>
-      <c r="E202" s="7"/>
-      <c r="F202" s="7"/>
-    </row>
-    <row r="203" spans="1:6" ht="100" customHeight="1">
-      <c r="A203" s="7"/>
-      <c r="B203" s="7"/>
-      <c r="C203" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D203" s="7"/>
-      <c r="E203" s="7"/>
-      <c r="F203" s="7"/>
-    </row>
-    <row r="204" spans="1:6" ht="100" customHeight="1">
-      <c r="A204" s="7"/>
-      <c r="B204" s="7"/>
-      <c r="C204" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D204" s="7"/>
-      <c r="E204" s="7"/>
-      <c r="F204" s="7"/>
-    </row>
-    <row r="205" spans="1:6" ht="100" customHeight="1">
-      <c r="A205" s="7"/>
-      <c r="B205" s="7"/>
-      <c r="C205" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D205" s="7"/>
-      <c r="E205" s="7"/>
-      <c r="F205" s="7"/>
-    </row>
-    <row r="206" spans="1:6" ht="100" customHeight="1">
-      <c r="A206" s="7"/>
-      <c r="B206" s="7"/>
-      <c r="C206" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D206" s="7"/>
-      <c r="E206" s="7"/>
-      <c r="F206" s="7"/>
-    </row>
-    <row r="207" spans="1:6" ht="100" customHeight="1">
-      <c r="A207" s="7"/>
-      <c r="B207" s="7"/>
-      <c r="C207" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D207" s="7"/>
-      <c r="E207" s="7"/>
-      <c r="F207" s="7"/>
-    </row>
-    <row r="208" spans="1:6" ht="100" customHeight="1">
-      <c r="A208" s="7"/>
-      <c r="B208" s="7"/>
-      <c r="C208" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D208" s="7"/>
-      <c r="E208" s="7"/>
-      <c r="F208" s="7"/>
-    </row>
-    <row r="209" spans="1:6" ht="100" customHeight="1">
-      <c r="A209" s="7"/>
-      <c r="B209" s="7"/>
-      <c r="C209" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D209" s="7"/>
-      <c r="E209" s="7"/>
-      <c r="F209" s="7"/>
-    </row>
-    <row r="210" spans="1:6" ht="100" customHeight="1">
-      <c r="A210" s="7"/>
-      <c r="B210" s="7"/>
-      <c r="C210" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D210" s="7"/>
-      <c r="E210" s="7"/>
-      <c r="F210" s="7"/>
-    </row>
-    <row r="211" spans="1:6" ht="100" customHeight="1">
-      <c r="A211" s="7"/>
-      <c r="B211" s="7"/>
-      <c r="C211" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D211" s="7"/>
-      <c r="E211" s="7"/>
-      <c r="F211" s="7"/>
-    </row>
-    <row r="212" spans="1:6" ht="100" customHeight="1">
-      <c r="A212" s="7"/>
-      <c r="B212" s="7"/>
-      <c r="C212" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D212" s="7"/>
-      <c r="E212" s="7"/>
-      <c r="F212" s="7"/>
-    </row>
-    <row r="213" spans="1:6" ht="100" customHeight="1">
-      <c r="A213" s="7"/>
-      <c r="B213" s="7"/>
-      <c r="C213" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D213" s="7"/>
-      <c r="E213" s="7"/>
-      <c r="F213" s="7"/>
-    </row>
-    <row r="214" spans="1:6" ht="100" customHeight="1">
-      <c r="A214" s="7"/>
-      <c r="B214" s="7"/>
-      <c r="C214" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D214" s="7"/>
-      <c r="E214" s="7"/>
-      <c r="F214" s="7"/>
-    </row>
-    <row r="215" spans="1:6" ht="100" customHeight="1">
-      <c r="A215" s="7"/>
-      <c r="B215" s="7"/>
-      <c r="C215" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="D215" s="7"/>
-      <c r="E215" s="7"/>
-      <c r="F215" s="7"/>
-    </row>
-    <row r="216" spans="1:6" ht="100" customHeight="1">
-      <c r="A216" s="7"/>
-      <c r="B216" s="7"/>
-      <c r="C216" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="D216" s="7"/>
-      <c r="E216" s="7"/>
-      <c r="F216" s="7"/>
-    </row>
-    <row r="217" spans="1:6" ht="100" customHeight="1">
-      <c r="A217" s="7"/>
-      <c r="B217" s="7"/>
-      <c r="C217" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D217" s="7"/>
-      <c r="E217" s="7"/>
-      <c r="F217" s="7"/>
-    </row>
-    <row r="218" spans="1:6" ht="100" customHeight="1">
-      <c r="A218" s="7"/>
-      <c r="B218" s="7"/>
-      <c r="C218" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D218" s="7"/>
-      <c r="E218" s="7"/>
-      <c r="F218" s="7"/>
-    </row>
-    <row r="219" spans="1:6" ht="100" customHeight="1">
-      <c r="A219" s="7"/>
-      <c r="B219" s="7"/>
-      <c r="C219" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D219" s="7"/>
-      <c r="E219" s="7"/>
-      <c r="F219" s="7"/>
-    </row>
-    <row r="220" spans="1:6" ht="100" customHeight="1">
-      <c r="A220" s="7"/>
-      <c r="B220" s="7"/>
-      <c r="C220" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D220" s="7"/>
-      <c r="E220" s="7"/>
-      <c r="F220" s="7"/>
-    </row>
-    <row r="221" spans="1:6" ht="100" customHeight="1"/>
+    <row r="186" spans="1:6" ht="100" customHeight="1"/>
   </sheetData>
   <mergeCells count="16">
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A7:A30"/>
-    <mergeCell ref="B7:B30"/>
-    <mergeCell ref="A31:A66"/>
-    <mergeCell ref="B31:B66"/>
-    <mergeCell ref="A67:A108"/>
-    <mergeCell ref="B67:B108"/>
-    <mergeCell ref="A109:A144"/>
-    <mergeCell ref="B109:B144"/>
-    <mergeCell ref="A145:A173"/>
-    <mergeCell ref="B145:B173"/>
-    <mergeCell ref="A174:A197"/>
-    <mergeCell ref="B174:B197"/>
-    <mergeCell ref="A198:A220"/>
-    <mergeCell ref="B198:B220"/>
+    <mergeCell ref="A7:A24"/>
+    <mergeCell ref="B7:B24"/>
+    <mergeCell ref="A25:A54"/>
+    <mergeCell ref="B25:B54"/>
+    <mergeCell ref="A55:A85"/>
+    <mergeCell ref="B55:B85"/>
+    <mergeCell ref="A86:A115"/>
+    <mergeCell ref="B86:B115"/>
+    <mergeCell ref="A116:A143"/>
+    <mergeCell ref="B116:B143"/>
+    <mergeCell ref="A144:A162"/>
+    <mergeCell ref="B144:B162"/>
+    <mergeCell ref="A163:A185"/>
+    <mergeCell ref="B163:B185"/>
   </mergeCells>
-  <conditionalFormatting sqref="D7:D220">
+  <conditionalFormatting sqref="D7:D185">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"VULN"</formula>
     </cfRule>
@@ -3079,7 +2702,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:D220">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:D185">
       <formula1>"PASSED,VULN,NOT APPLICABLE"</formula1>
     </dataValidation>
   </dataValidations>
